--- a/Test Data/FC_Gallery_PanelNode_Repeaters_FIM_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_PanelNode_Repeaters_FIM_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC756610-A441-4512-A131-FFBF358B868F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15148EA5-5F48-4A02-B3B1-4F4B253B48DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8433C091-6EA3-461B-A735-1A939DFDAC3C}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8188D964-FDDA-43BA-A75C-E5DD90182070}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/FC_Gallery_PanelNode_Repeaters_FIM_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_PanelNode_Repeaters_FIM_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15148EA5-5F48-4A02-B3B1-4F4B253B48DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF2C768-A005-48F0-96A6-4EF7CE17FFE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -677,7 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8433C091-6EA3-461B-A735-1A939DFDAC3C}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0AFB36-7E99-49E9-9C6B-2D77612FC441}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/FC_Gallery_PanelNode_Repeaters_FIM_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_PanelNode_Repeaters_FIM_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF2C768-A005-48F0-96A6-4EF7CE17FFE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAD89F2-57CE-4A27-9081-3CB9CED3CB3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t xml:space="preserve">UK </t>
   </si>
   <si>
-    <t>NGC-/T1235/T1239/T1245</t>
-  </si>
-  <si>
     <t>NGC-3442/T1593/T1606/T1623</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>NGC-3443/T1917/T1942/T1957</t>
+  </si>
+  <si>
+    <t>NGC-3003/T1235/T1239/T1245</t>
   </si>
 </sst>
 </file>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E633250-93FC-4A95-8297-DC7F9D0A64D2}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -702,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -814,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0AFB36-7E99-49E9-9C6B-2D77612FC441}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -839,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -861,7 +861,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -966,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -988,7 +988,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
